--- a/Jogos_do_Dia/2023-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1784,13 +1784,13 @@
         <v>219</v>
       </c>
       <c r="F4">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H4">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1805,10 +1805,10 @@
         <v>5.6</v>
       </c>
       <c r="M4">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="N4">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="O4">
         <v>1.25</v>
@@ -1888,13 +1888,13 @@
         <v>220</v>
       </c>
       <c r="F5">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H5">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I5">
         <v>1.01</v>
@@ -1909,10 +1909,10 @@
         <v>3.9</v>
       </c>
       <c r="M5">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O5">
         <v>1.33</v>
@@ -1995,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H6">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I6">
         <v>1.01</v>
@@ -2013,10 +2013,10 @@
         <v>3.9</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -2096,13 +2096,13 @@
         <v>222</v>
       </c>
       <c r="F7">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="H7">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I7">
         <v>1.03</v>
@@ -2117,10 +2117,10 @@
         <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
         <v>1.29</v>
@@ -2203,10 +2203,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
         <v>1.07</v>
@@ -2221,10 +2221,10 @@
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -2304,13 +2304,13 @@
         <v>224</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I9">
         <v>1.05</v>
@@ -2325,10 +2325,10 @@
         <v>3.7</v>
       </c>
       <c r="M9">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N9">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -2408,13 +2408,13 @@
         <v>225</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H10">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -2429,10 +2429,10 @@
         <v>3.75</v>
       </c>
       <c r="M10">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="N10">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -2512,13 +2512,13 @@
         <v>226</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -2533,7 +2533,7 @@
         <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="N11">
         <v>1.85</v>
@@ -2616,13 +2616,13 @@
         <v>227</v>
       </c>
       <c r="F12">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
         <v>1.04</v>
@@ -2637,10 +2637,10 @@
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O12">
         <v>1.36</v>
@@ -2720,14 +2720,14 @@
         <v>228</v>
       </c>
       <c r="F13">
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <v>3.35</v>
+      </c>
+      <c r="H13">
         <v>2.7</v>
       </c>
-      <c r="G13">
-        <v>3.4</v>
-      </c>
-      <c r="H13">
-        <v>2.6</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N13">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2824,13 +2824,13 @@
         <v>229</v>
       </c>
       <c r="F14">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="G14">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H14">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I14">
         <v>1.02</v>
@@ -2845,10 +2845,10 @@
         <v>4.33</v>
       </c>
       <c r="M14">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
         <v>1.32</v>
@@ -2928,13 +2928,13 @@
         <v>230</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H15">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I15">
         <v>1.03</v>
@@ -2949,10 +2949,10 @@
         <v>4.33</v>
       </c>
       <c r="M15">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
         <v>1.31</v>
@@ -3032,13 +3032,13 @@
         <v>231</v>
       </c>
       <c r="F16">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="G16">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H16">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I16">
         <v>1.03</v>
@@ -3053,10 +3053,10 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N16">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="O16">
         <v>1.33</v>
@@ -3136,13 +3136,13 @@
         <v>232</v>
       </c>
       <c r="F17">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="G17">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I17">
         <v>1.04</v>
@@ -3160,7 +3160,7 @@
         <v>1.73</v>
       </c>
       <c r="N17">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O17">
         <v>1.36</v>
@@ -3240,13 +3240,13 @@
         <v>233</v>
       </c>
       <c r="F18">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H18">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I18">
         <v>1.05</v>
@@ -3261,10 +3261,10 @@
         <v>3.3</v>
       </c>
       <c r="M18">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="N18">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -3303,13 +3303,13 @@
         <v>1.24</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD18">
         <v>1.4</v>
@@ -3344,13 +3344,13 @@
         <v>234</v>
       </c>
       <c r="F19">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="G19">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H19">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -3365,10 +3365,10 @@
         <v>3.04</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="N19">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O19">
         <v>1.44</v>
@@ -3407,13 +3407,13 @@
         <v>2.89</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3448,13 +3448,13 @@
         <v>235</v>
       </c>
       <c r="F20">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G20">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I20">
         <v>1.06</v>
@@ -3469,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N20">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -3511,25 +3511,25 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         <v>236</v>
       </c>
       <c r="F21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G21">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -3573,10 +3573,10 @@
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N21">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O21">
         <v>1.44</v>
@@ -3656,13 +3656,13 @@
         <v>237</v>
       </c>
       <c r="F22">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H22">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="I22">
         <v>1.03</v>
@@ -3677,10 +3677,10 @@
         <v>3.04</v>
       </c>
       <c r="M22">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N22">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O22">
         <v>1.44</v>
@@ -3760,13 +3760,13 @@
         <v>238</v>
       </c>
       <c r="F23">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G23">
         <v>3.1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I23">
         <v>1.07</v>
@@ -3781,10 +3781,10 @@
         <v>2.85</v>
       </c>
       <c r="M23">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="N23">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O23">
         <v>1.5</v>
@@ -3823,13 +3823,13 @@
         <v>3.13</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>239</v>
       </c>
       <c r="F24">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="G24">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3885,10 +3885,10 @@
         <v>3.45</v>
       </c>
       <c r="M24">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="N24">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="O24">
         <v>1.4</v>
@@ -3968,13 +3968,13 @@
         <v>240</v>
       </c>
       <c r="F25">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H25">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I25">
         <v>1.05</v>
@@ -3989,10 +3989,10 @@
         <v>3.05</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N25">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O25">
         <v>1.44</v>
@@ -4072,13 +4072,13 @@
         <v>241</v>
       </c>
       <c r="F26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I26">
         <v>1.1</v>
@@ -4093,10 +4093,10 @@
         <v>2.48</v>
       </c>
       <c r="M26">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="O26">
         <v>1.57</v>
@@ -4135,13 +4135,13 @@
         <v>2.44</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD26">
         <v>1.44</v>
@@ -4153,7 +4153,7 @@
         <v>2.2</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         <v>242</v>
       </c>
       <c r="F27">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H27">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I27">
         <v>1.04</v>
@@ -4197,10 +4197,10 @@
         <v>2.97</v>
       </c>
       <c r="M27">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="N27">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O27">
         <v>1.44</v>
@@ -4239,16 +4239,16 @@
         <v>2.71</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE27">
         <v>1.57</v>
@@ -4280,10 +4280,10 @@
         <v>243</v>
       </c>
       <c r="F28">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="G28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
         <v>3.2</v>
@@ -4301,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -4384,13 +4384,13 @@
         <v>244</v>
       </c>
       <c r="F29">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="H29">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="I29">
         <v>1.07</v>
@@ -4405,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="N29">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O29">
         <v>1.44</v>
@@ -4488,13 +4488,13 @@
         <v>245</v>
       </c>
       <c r="F30">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="G30">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="H30">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="I30">
         <v>1.07</v>
@@ -4509,10 +4509,10 @@
         <v>2.8</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N30">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O30">
         <v>1.44</v>
@@ -4592,52 +4592,52 @@
         <v>246</v>
       </c>
       <c r="F31">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="G31">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="H31">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M31">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="N31">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
         <v>2.5</v>
@@ -4655,28 +4655,28 @@
         <v>2.99</v>
       </c>
       <c r="AA31">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AB31">
         <v>5.75</v>
       </c>
       <c r="AC31">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF31">
         <v>1.71</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4696,13 +4696,13 @@
         <v>247</v>
       </c>
       <c r="F32">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="G32">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I32">
         <v>1.07</v>
@@ -4717,10 +4717,10 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O32">
         <v>1.4</v>
@@ -4800,13 +4800,13 @@
         <v>248</v>
       </c>
       <c r="F33">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="G33">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="H33">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>1.01</v>
@@ -4821,10 +4821,10 @@
         <v>3.64</v>
       </c>
       <c r="M33">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N33">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="O33">
         <v>1.38</v>
@@ -4904,13 +4904,13 @@
         <v>249</v>
       </c>
       <c r="F34">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="G34">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="I34">
         <v>1.12</v>
@@ -4922,13 +4922,13 @@
         <v>1.54</v>
       </c>
       <c r="L34">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="N34">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O34">
         <v>1.6</v>
@@ -5008,13 +5008,13 @@
         <v>250</v>
       </c>
       <c r="F35">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="G35">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H35">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I35">
         <v>1.06</v>
@@ -5032,7 +5032,7 @@
         <v>1.89</v>
       </c>
       <c r="N35">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O35">
         <v>1.36</v>
@@ -5112,13 +5112,13 @@
         <v>251</v>
       </c>
       <c r="F36">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="G36">
-        <v>3.59</v>
+        <v>3.3</v>
       </c>
       <c r="H36">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="I36">
         <v>1.05</v>
@@ -5133,10 +5133,10 @@
         <v>3.63</v>
       </c>
       <c r="M36">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="N36">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -5216,13 +5216,13 @@
         <v>252</v>
       </c>
       <c r="F37">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="G37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="I37">
         <v>1.05</v>
@@ -5237,10 +5237,10 @@
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="N37">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O37">
         <v>1.43</v>
@@ -5320,37 +5320,37 @@
         <v>253</v>
       </c>
       <c r="F38">
-        <v>2.56</v>
+        <v>2.85</v>
       </c>
       <c r="G38">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="H38">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
         <v>1.53</v>
@@ -5359,13 +5359,13 @@
         <v>2.38</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V38">
         <v>1.63</v>
@@ -5383,28 +5383,28 @@
         <v>3.46</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG38">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -5424,13 +5424,13 @@
         <v>254</v>
       </c>
       <c r="F39">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="H39">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I39">
         <v>1.09</v>
@@ -5445,10 +5445,10 @@
         <v>2.9</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="N39">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -5528,13 +5528,13 @@
         <v>255</v>
       </c>
       <c r="F40">
-        <v>11.12</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>6.45</v>
+        <v>5.5</v>
       </c>
       <c r="H40">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="I40">
         <v>1.02</v>
@@ -5632,10 +5632,10 @@
         <v>256</v>
       </c>
       <c r="F41">
-        <v>5.92</v>
+        <v>6.5</v>
       </c>
       <c r="G41">
-        <v>4.43</v>
+        <v>4.25</v>
       </c>
       <c r="H41">
         <v>1.5</v>
@@ -5653,10 +5653,10 @@
         <v>4.5</v>
       </c>
       <c r="M41">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O41">
         <v>1.3</v>
@@ -5739,10 +5739,10 @@
         <v>3.1</v>
       </c>
       <c r="G42">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="H42">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="I42">
         <v>1.04</v>
@@ -5757,10 +5757,10 @@
         <v>2.9</v>
       </c>
       <c r="M42">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="N42">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O42">
         <v>1.44</v>
@@ -5843,10 +5843,10 @@
         <v>1.75</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I43">
         <v>1.02</v>
@@ -5861,10 +5861,10 @@
         <v>4.3</v>
       </c>
       <c r="M43">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O43">
         <v>1.33</v>
@@ -6048,13 +6048,13 @@
         <v>260</v>
       </c>
       <c r="F45">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="G45">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H45">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I45">
         <v>1.04</v>
@@ -6069,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="M45">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
         <v>1.3</v>
@@ -6152,13 +6152,13 @@
         <v>261</v>
       </c>
       <c r="F46">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="G46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H46">
-        <v>3.87</v>
+        <v>3.4</v>
       </c>
       <c r="I46">
         <v>1.04</v>
@@ -6173,10 +6173,10 @@
         <v>3.8</v>
       </c>
       <c r="M46">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N46">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O46">
         <v>1.36</v>
@@ -6256,13 +6256,13 @@
         <v>262</v>
       </c>
       <c r="F47">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="G47">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="H47">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="I47">
         <v>1.05</v>
@@ -6277,10 +6277,10 @@
         <v>3</v>
       </c>
       <c r="M47">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="N47">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
         <v>1.44</v>
@@ -6360,13 +6360,13 @@
         <v>263</v>
       </c>
       <c r="F48">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="G48">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="H48">
-        <v>3.44</v>
+        <v>2.8</v>
       </c>
       <c r="I48">
         <v>1.05</v>
@@ -6381,10 +6381,10 @@
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="N48">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O48">
         <v>1.36</v>
@@ -6464,13 +6464,13 @@
         <v>264</v>
       </c>
       <c r="F49">
-        <v>4.07</v>
+        <v>3.65</v>
       </c>
       <c r="G49">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="H49">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="I49">
         <v>1.05</v>
@@ -6485,10 +6485,10 @@
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N49">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="O49">
         <v>1.4</v>
@@ -6568,13 +6568,13 @@
         <v>265</v>
       </c>
       <c r="F50">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H50">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="I50">
         <v>1.05</v>
@@ -6589,10 +6589,10 @@
         <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N50">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="O50">
         <v>1.36</v>
@@ -6672,13 +6672,13 @@
         <v>266</v>
       </c>
       <c r="F51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="G51">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H51">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="I51">
         <v>1.03</v>
@@ -6693,10 +6693,10 @@
         <v>3.95</v>
       </c>
       <c r="M51">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O51">
         <v>1.33</v>
@@ -6776,13 +6776,13 @@
         <v>267</v>
       </c>
       <c r="F52">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="G52">
-        <v>3.76</v>
+        <v>3.4</v>
       </c>
       <c r="H52">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I52">
         <v>1.03</v>
@@ -6797,10 +6797,10 @@
         <v>3.7</v>
       </c>
       <c r="M52">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N52">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="O52">
         <v>1.36</v>
@@ -6880,31 +6880,31 @@
         <v>268</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -6913,19 +6913,19 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V53">
         <v>2.17</v>
@@ -6984,13 +6984,13 @@
         <v>269</v>
       </c>
       <c r="F54">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G54">
         <v>3.3</v>
       </c>
       <c r="H54">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I54">
         <v>1.05</v>
@@ -7005,10 +7005,10 @@
         <v>3.8</v>
       </c>
       <c r="M54">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N54">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="O54">
         <v>1.35</v>
@@ -7088,13 +7088,13 @@
         <v>270</v>
       </c>
       <c r="F55">
-        <v>2.35</v>
+        <v>2.94</v>
       </c>
       <c r="G55">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H55">
-        <v>2.65</v>
+        <v>2.16</v>
       </c>
       <c r="I55">
         <v>1.05</v>
@@ -7109,10 +7109,10 @@
         <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="O55">
         <v>1.36</v>
@@ -7192,13 +7192,13 @@
         <v>271</v>
       </c>
       <c r="F56">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="G56">
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
       <c r="H56">
-        <v>5.97</v>
+        <v>5.25</v>
       </c>
       <c r="I56">
         <v>1.11</v>
@@ -7207,16 +7207,16 @@
         <v>6.5</v>
       </c>
       <c r="K56">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L56">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M56">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="N56">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O56">
         <v>1.58</v>
@@ -7296,13 +7296,13 @@
         <v>272</v>
       </c>
       <c r="F57">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="G57">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="H57">
-        <v>3.44</v>
+        <v>2.97</v>
       </c>
       <c r="I57">
         <v>1.08</v>
@@ -7317,10 +7317,10 @@
         <v>2.9</v>
       </c>
       <c r="M57">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="N57">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O57">
         <v>1.5</v>
@@ -7400,13 +7400,13 @@
         <v>273</v>
       </c>
       <c r="F58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G58">
         <v>3.7</v>
       </c>
       <c r="H58">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7421,10 +7421,10 @@
         <v>3.82</v>
       </c>
       <c r="M58">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="N58">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O58">
         <v>1.38</v>
@@ -7504,13 +7504,13 @@
         <v>274</v>
       </c>
       <c r="F59">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="G59">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H59">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N59">
         <v>2.2</v>
@@ -7608,13 +7608,13 @@
         <v>275</v>
       </c>
       <c r="F60">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="H60">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -7629,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N60">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7712,13 +7712,13 @@
         <v>276</v>
       </c>
       <c r="F61">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G61">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="H61">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I61">
         <v>1.02</v>
@@ -7733,10 +7733,10 @@
         <v>4.75</v>
       </c>
       <c r="M61">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="N61">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O61">
         <v>1.25</v>
@@ -7816,13 +7816,13 @@
         <v>277</v>
       </c>
       <c r="F62">
-        <v>6.04</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>4.92</v>
+        <v>4.6</v>
       </c>
       <c r="H62">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="I62">
         <v>1.01</v>
@@ -7837,10 +7837,10 @@
         <v>5</v>
       </c>
       <c r="M62">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="N62">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
         <v>1.29</v>
@@ -7920,13 +7920,13 @@
         <v>278</v>
       </c>
       <c r="F63">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="G63">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="H63">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -7941,10 +7941,10 @@
         <v>3.82</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -8024,13 +8024,13 @@
         <v>279</v>
       </c>
       <c r="F64">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H64">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I64">
         <v>1.1</v>
@@ -8039,16 +8039,16 @@
         <v>7.3</v>
       </c>
       <c r="K64">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="L64">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="O64">
         <v>1.58</v>
@@ -8128,13 +8128,13 @@
         <v>280</v>
       </c>
       <c r="F65">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G65">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H65">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -8149,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -8232,13 +8232,13 @@
         <v>281</v>
       </c>
       <c r="F66">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -8253,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -8336,13 +8336,13 @@
         <v>282</v>
       </c>
       <c r="F67">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G67">
         <v>3.3</v>
       </c>
       <c r="H67">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8360,7 +8360,7 @@
         <v>2</v>
       </c>
       <c r="N67">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O67">
         <v>1.41</v>
@@ -8440,13 +8440,13 @@
         <v>283</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -8503,13 +8503,13 @@
         <v>3.34</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>284</v>
       </c>
       <c r="F69">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G69">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="H69">
-        <v>4.04</v>
+        <v>4.25</v>
       </c>
       <c r="I69">
         <v>1.05</v>
@@ -8565,10 +8565,10 @@
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="N69">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
         <v>1.4</v>
@@ -8648,13 +8648,13 @@
         <v>285</v>
       </c>
       <c r="F70">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="H70">
-        <v>4.19</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>1.06</v>
@@ -8672,7 +8672,7 @@
         <v>2.15</v>
       </c>
       <c r="N70">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O70">
         <v>1.44</v>
@@ -8752,13 +8752,13 @@
         <v>286</v>
       </c>
       <c r="F71">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G71">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="H71">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="I71">
         <v>1.05</v>
@@ -8773,10 +8773,10 @@
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N71">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O71">
         <v>1.44</v>
@@ -8856,13 +8856,13 @@
         <v>287</v>
       </c>
       <c r="F72">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G72">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H72">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I72">
         <v>1.03</v>
@@ -8877,10 +8877,10 @@
         <v>3.8</v>
       </c>
       <c r="M72">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="O72">
         <v>1.36</v>
@@ -8960,13 +8960,13 @@
         <v>288</v>
       </c>
       <c r="F73">
-        <v>3.4</v>
+        <v>3.88</v>
       </c>
       <c r="G73">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I73">
         <v>1.07</v>
@@ -8981,10 +8981,10 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="N73">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O73">
         <v>1.44</v>
@@ -9064,13 +9064,13 @@
         <v>289</v>
       </c>
       <c r="F74">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="G74">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H74">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -9085,10 +9085,10 @@
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O74">
         <v>1.37</v>
@@ -9168,13 +9168,13 @@
         <v>290</v>
       </c>
       <c r="F75">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="H75">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I75">
         <v>1.06</v>
@@ -9189,10 +9189,10 @@
         <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="O75">
         <v>1.44</v>
@@ -9272,13 +9272,13 @@
         <v>291</v>
       </c>
       <c r="F76">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G76">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="H76">
-        <v>3.07</v>
+        <v>2.67</v>
       </c>
       <c r="I76">
         <v>1.11</v>
@@ -9293,10 +9293,10 @@
         <v>2.66</v>
       </c>
       <c r="M76">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
         <v>1.53</v>
@@ -9376,13 +9376,13 @@
         <v>292</v>
       </c>
       <c r="F77">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G77">
+        <v>3.3</v>
+      </c>
+      <c r="H77">
         <v>3.2</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
       </c>
       <c r="I77">
         <v>1.05</v>
@@ -9397,10 +9397,10 @@
         <v>3.25</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N77">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O77">
         <v>1.42</v>
@@ -9451,16 +9451,16 @@
         <v>0</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG77">
         <v>1.83</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="78" spans="1:34">
@@ -9480,13 +9480,13 @@
         <v>293</v>
       </c>
       <c r="F78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I78">
         <v>1.07</v>
@@ -9501,10 +9501,10 @@
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O78">
         <v>1.42</v>
@@ -9584,13 +9584,13 @@
         <v>294</v>
       </c>
       <c r="F79">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="G79">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="I79">
         <v>1.1</v>
@@ -9605,10 +9605,10 @@
         <v>2.45</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="N79">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="O79">
         <v>1.53</v>
@@ -9688,13 +9688,13 @@
         <v>295</v>
       </c>
       <c r="F80">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="G80">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H80">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="I80">
         <v>1.1</v>
@@ -9709,10 +9709,10 @@
         <v>2.67</v>
       </c>
       <c r="M80">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="N80">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="O80">
         <v>1.53</v>
@@ -9792,13 +9792,13 @@
         <v>296</v>
       </c>
       <c r="F81">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="G81">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H81">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="I81">
         <v>1.08</v>
@@ -9813,10 +9813,10 @@
         <v>2.75</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N81">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="O81">
         <v>1.47</v>
@@ -9896,13 +9896,13 @@
         <v>297</v>
       </c>
       <c r="F82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G82">
         <v>3.4</v>
       </c>
       <c r="H82">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I82">
         <v>1.11</v>
@@ -9917,10 +9917,10 @@
         <v>2.5</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O82">
         <v>1.53</v>
@@ -10000,13 +10000,13 @@
         <v>298</v>
       </c>
       <c r="F83">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G83">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H83">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I83">
         <v>1.11</v>
@@ -10021,10 +10021,10 @@
         <v>2.5</v>
       </c>
       <c r="M83">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O83">
         <v>1.53</v>
@@ -10104,13 +10104,13 @@
         <v>299</v>
       </c>
       <c r="F84">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="G84">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H84">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="I84">
         <v>1.1</v>
@@ -10125,10 +10125,10 @@
         <v>2.43</v>
       </c>
       <c r="M84">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="O84">
         <v>1.53</v>
@@ -10208,13 +10208,13 @@
         <v>300</v>
       </c>
       <c r="F85">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="G85">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H85">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="I85">
         <v>1.09</v>
@@ -10229,10 +10229,10 @@
         <v>2.9</v>
       </c>
       <c r="M85">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="N85">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="O85">
         <v>1.5</v>
@@ -10312,13 +10312,13 @@
         <v>301</v>
       </c>
       <c r="F86">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G86">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="H86">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86">
         <v>1.01</v>
@@ -10333,7 +10333,7 @@
         <v>4.33</v>
       </c>
       <c r="M86">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N86">
         <v>2.2</v>
@@ -10416,13 +10416,13 @@
         <v>302</v>
       </c>
       <c r="F87">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="G87">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H87">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I87">
         <v>1.01</v>
@@ -10437,10 +10437,10 @@
         <v>5.8</v>
       </c>
       <c r="M87">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="N87">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="O87">
         <v>1.2</v>
@@ -10523,10 +10523,10 @@
         <v>1.55</v>
       </c>
       <c r="G88">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="H88">
-        <v>5.45</v>
+        <v>5.75</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10541,10 +10541,10 @@
         <v>4.5</v>
       </c>
       <c r="M88">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="O88">
         <v>1.3</v>
@@ -10627,10 +10627,10 @@
         <v>1.11</v>
       </c>
       <c r="G89">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="H89">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10728,13 +10728,13 @@
         <v>305</v>
       </c>
       <c r="F90">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="G90">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="H90">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="I90">
         <v>1.04</v>
@@ -10749,10 +10749,10 @@
         <v>3.9</v>
       </c>
       <c r="M90">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N90">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="O90">
         <v>1.36</v>
@@ -10832,52 +10832,52 @@
         <v>306</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V91">
         <v>1.5</v>
@@ -10936,13 +10936,13 @@
         <v>307</v>
       </c>
       <c r="F92">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G92">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H92">
-        <v>5.66</v>
+        <v>5.5</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10957,10 +10957,10 @@
         <v>4</v>
       </c>
       <c r="M92">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N92">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O92">
         <v>1.33</v>
@@ -11040,13 +11040,13 @@
         <v>308</v>
       </c>
       <c r="F93">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="G93">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I93">
         <v>1.07</v>
@@ -11061,10 +11061,10 @@
         <v>2.9</v>
       </c>
       <c r="M93">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="N93">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O93">
         <v>1.5</v>
@@ -11144,13 +11144,13 @@
         <v>309</v>
       </c>
       <c r="F94">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="G94">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="H94">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="I94">
         <v>1.03</v>
@@ -11165,10 +11165,10 @@
         <v>4.33</v>
       </c>
       <c r="M94">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="O94">
         <v>1.32</v>
@@ -11248,13 +11248,13 @@
         <v>310</v>
       </c>
       <c r="F95">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="G95">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H95">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I95">
         <v>1.11</v>
@@ -11263,16 +11263,16 @@
         <v>6.5</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L95">
         <v>2.45</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="O95">
         <v>1.59</v>
@@ -11352,13 +11352,13 @@
         <v>311</v>
       </c>
       <c r="F96">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="G96">
-        <v>5.43</v>
+        <v>4.5</v>
       </c>
       <c r="H96">
-        <v>8.93</v>
+        <v>6.5</v>
       </c>
       <c r="I96">
         <v>1.04</v>
@@ -11373,10 +11373,10 @@
         <v>4.07</v>
       </c>
       <c r="M96">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="N96">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="O96">
         <v>1.33</v>
@@ -11456,13 +11456,13 @@
         <v>312</v>
       </c>
       <c r="F97">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="G97">
-        <v>3.53</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -11477,10 +11477,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="N97">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -11560,13 +11560,13 @@
         <v>313</v>
       </c>
       <c r="F98">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G98">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H98">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="I98">
         <v>1.01</v>
@@ -11581,10 +11581,10 @@
         <v>4</v>
       </c>
       <c r="M98">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="N98">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="O98">
         <v>1.32</v>
@@ -11664,13 +11664,13 @@
         <v>314</v>
       </c>
       <c r="F99">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G99">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H99">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I99">
         <v>1.01</v>
@@ -11685,10 +11685,10 @@
         <v>3.55</v>
       </c>
       <c r="M99">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O99">
         <v>1.36</v>
@@ -11768,13 +11768,13 @@
         <v>315</v>
       </c>
       <c r="F100">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G100">
         <v>3.5</v>
       </c>
       <c r="H100">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="I100">
         <v>1.06</v>
@@ -11789,10 +11789,10 @@
         <v>3.2</v>
       </c>
       <c r="M100">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
         <v>1.44</v>
@@ -11872,13 +11872,13 @@
         <v>316</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="G101">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="H101">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I101">
         <v>1.02</v>
@@ -11976,13 +11976,13 @@
         <v>317</v>
       </c>
       <c r="F102">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G102">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H102">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I102">
         <v>1.03</v>
@@ -11997,10 +11997,10 @@
         <v>3.1</v>
       </c>
       <c r="M102">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="N102">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O102">
         <v>1.42</v>
@@ -12080,10 +12080,10 @@
         <v>318</v>
       </c>
       <c r="F103">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G103">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H103">
         <v>1.77</v>
@@ -12101,10 +12101,10 @@
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="N103">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O103">
         <v>1.4</v>
@@ -12184,13 +12184,13 @@
         <v>319</v>
       </c>
       <c r="F104">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G104">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="H104">
-        <v>10.82</v>
+        <v>13</v>
       </c>
       <c r="I104">
         <v>1.01</v>
@@ -12205,10 +12205,10 @@
         <v>6.3</v>
       </c>
       <c r="M104">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="N104">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="O104">
         <v>1.22</v>
@@ -12288,13 +12288,13 @@
         <v>320</v>
       </c>
       <c r="F105">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="G105">
         <v>5</v>
       </c>
       <c r="H105">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="I105">
         <v>1.02</v>
@@ -12309,10 +12309,10 @@
         <v>4.5</v>
       </c>
       <c r="M105">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="N105">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="O105">
         <v>1.29</v>
@@ -12496,13 +12496,13 @@
         <v>322</v>
       </c>
       <c r="F107">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="G107">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H107">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I107">
         <v>1.03</v>
@@ -12520,7 +12520,7 @@
         <v>1.57</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="O107">
         <v>1.3</v>
@@ -12704,13 +12704,13 @@
         <v>324</v>
       </c>
       <c r="F109">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="G109">
-        <v>3.87</v>
+        <v>3.6</v>
       </c>
       <c r="H109">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -12808,13 +12808,13 @@
         <v>325</v>
       </c>
       <c r="F110">
-        <v>5.2</v>
+        <v>4.48</v>
       </c>
       <c r="G110">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="H110">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="I110">
         <v>1.09</v>
@@ -12829,10 +12829,10 @@
         <v>2.65</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N110">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O110">
         <v>1.5</v>
@@ -12912,13 +12912,13 @@
         <v>326</v>
       </c>
       <c r="F111">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G111">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="H111">
-        <v>5.92</v>
+        <v>6.5</v>
       </c>
       <c r="I111">
         <v>1.02</v>
@@ -12933,10 +12933,10 @@
         <v>4.3</v>
       </c>
       <c r="M111">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O111">
         <v>1.33</v>
@@ -13016,13 +13016,13 @@
         <v>327</v>
       </c>
       <c r="F112">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G112">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H112">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I112">
         <v>1.04</v>
@@ -13037,10 +13037,10 @@
         <v>2.82</v>
       </c>
       <c r="M112">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="N112">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O112">
         <v>1.47</v>
@@ -13120,13 +13120,13 @@
         <v>328</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -13141,10 +13141,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -13153,10 +13153,10 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -13183,13 +13183,13 @@
         <v>3.6</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -13227,10 +13227,10 @@
         <v>3.2</v>
       </c>
       <c r="G114">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H114">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -13328,13 +13328,13 @@
         <v>330</v>
       </c>
       <c r="F115">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="G115">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H115">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="I115">
         <v>1.04</v>
@@ -13349,10 +13349,10 @@
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O115">
         <v>1.36</v>
@@ -13432,13 +13432,13 @@
         <v>331</v>
       </c>
       <c r="F116">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="G116">
-        <v>3.87</v>
+        <v>3.6</v>
       </c>
       <c r="H116">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I116">
         <v>1.03</v>
@@ -13453,10 +13453,10 @@
         <v>4.5</v>
       </c>
       <c r="M116">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="N116">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="O116">
         <v>1.3</v>
@@ -13536,13 +13536,13 @@
         <v>332</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -13640,13 +13640,13 @@
         <v>333</v>
       </c>
       <c r="F118">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G118">
-        <v>5.02</v>
+        <v>5</v>
       </c>
       <c r="H118">
-        <v>9.550000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="I118">
         <v>1.01</v>
@@ -13661,10 +13661,10 @@
         <v>3.8</v>
       </c>
       <c r="M118">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="N118">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="O118">
         <v>1.36</v>
@@ -13744,13 +13744,13 @@
         <v>334</v>
       </c>
       <c r="F119">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G119">
-        <v>4.22</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>6.22</v>
+        <v>6</v>
       </c>
       <c r="I119">
         <v>1.03</v>
@@ -13765,10 +13765,10 @@
         <v>3.95</v>
       </c>
       <c r="M119">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="N119">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="O119">
         <v>1.33</v>
@@ -13848,13 +13848,13 @@
         <v>335</v>
       </c>
       <c r="F120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="H120">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I120">
         <v>1.05</v>
@@ -13869,10 +13869,10 @@
         <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N120">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="O120">
         <v>1.36</v>
@@ -13952,13 +13952,13 @@
         <v>336</v>
       </c>
       <c r="F121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="H121">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I121">
         <v>1.08</v>
@@ -13967,13 +13967,13 @@
         <v>6.15</v>
       </c>
       <c r="K121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M121">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="N121">
         <v>1.43</v>
@@ -14056,13 +14056,13 @@
         <v>337</v>
       </c>
       <c r="F122">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I122">
         <v>1.08</v>
@@ -14071,13 +14071,13 @@
         <v>6.3</v>
       </c>
       <c r="K122">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L122">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="N122">
         <v>1.45</v>
@@ -14160,13 +14160,13 @@
         <v>338</v>
       </c>
       <c r="F123">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="G123">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="H123">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="I123">
         <v>1.09</v>
@@ -14181,10 +14181,10 @@
         <v>2.75</v>
       </c>
       <c r="M123">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O123">
         <v>1.5</v>
@@ -14264,13 +14264,13 @@
         <v>339</v>
       </c>
       <c r="F124">
-        <v>7.25</v>
+        <v>9.5</v>
       </c>
       <c r="G124">
         <v>4.2</v>
       </c>
       <c r="H124">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I124">
         <v>1.05</v>
@@ -14285,10 +14285,10 @@
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="N124">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14368,13 +14368,13 @@
         <v>340</v>
       </c>
       <c r="F125">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G125">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="H125">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="I125">
         <v>1.09</v>
@@ -14392,7 +14392,7 @@
         <v>2.4</v>
       </c>
       <c r="N125">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O125">
         <v>1.52</v>
@@ -14472,13 +14472,13 @@
         <v>341</v>
       </c>
       <c r="F126">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G126">
-        <v>6.17</v>
+        <v>5.75</v>
       </c>
       <c r="H126">
-        <v>13.92</v>
+        <v>10</v>
       </c>
       <c r="I126">
         <v>1.02</v>
@@ -14496,7 +14496,7 @@
         <v>1.53</v>
       </c>
       <c r="N126">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
         <v>1.29</v>
@@ -14576,13 +14576,13 @@
         <v>342</v>
       </c>
       <c r="F127">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="G127">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="H127">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -14597,10 +14597,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N127">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -14680,13 +14680,13 @@
         <v>343</v>
       </c>
       <c r="F128">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G128">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H128">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="I128">
         <v>1.03</v>
@@ -14704,7 +14704,7 @@
         <v>1.77</v>
       </c>
       <c r="N128">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="O128">
         <v>1.36</v>
@@ -14784,13 +14784,13 @@
         <v>344</v>
       </c>
       <c r="F129">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="G129">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H129">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I129">
         <v>1.04</v>
@@ -14805,10 +14805,10 @@
         <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O129">
         <v>1.4</v>
@@ -14888,13 +14888,13 @@
         <v>345</v>
       </c>
       <c r="F130">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="G130">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H130">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I130">
         <v>1.09</v>
@@ -14909,10 +14909,10 @@
         <v>2.5</v>
       </c>
       <c r="M130">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="N130">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O130">
         <v>1.51</v>
@@ -14992,13 +14992,13 @@
         <v>346</v>
       </c>
       <c r="F131">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="G131">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="H131">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="I131">
         <v>1.03</v>
@@ -15013,10 +15013,10 @@
         <v>4</v>
       </c>
       <c r="M131">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N131">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O131">
         <v>1.33</v>
@@ -15096,13 +15096,13 @@
         <v>347</v>
       </c>
       <c r="F132">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G132">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H132">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1.08</v>
@@ -15117,10 +15117,10 @@
         <v>2.55</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O132">
         <v>1.53</v>
@@ -15200,13 +15200,13 @@
         <v>348</v>
       </c>
       <c r="F133">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="G133">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="I133">
         <v>1.06</v>
@@ -15221,10 +15221,10 @@
         <v>2.54</v>
       </c>
       <c r="M133">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="N133">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O133">
         <v>1.52</v>
@@ -15304,13 +15304,13 @@
         <v>349</v>
       </c>
       <c r="F134">
-        <v>4.87</v>
+        <v>4.6</v>
       </c>
       <c r="G134">
-        <v>4.04</v>
+        <v>3.85</v>
       </c>
       <c r="H134">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="I134">
         <v>1.03</v>
@@ -15325,10 +15325,10 @@
         <v>3.8</v>
       </c>
       <c r="M134">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="N134">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O134">
         <v>1.36</v>
@@ -15533,10 +15533,10 @@
         <v>2.7</v>
       </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="N136">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O136">
         <v>1.46</v>
@@ -15616,13 +15616,13 @@
         <v>352</v>
       </c>
       <c r="F137">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G137">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H137">
-        <v>11.4</v>
+        <v>8</v>
       </c>
       <c r="I137">
         <v>1.01</v>
@@ -15637,10 +15637,10 @@
         <v>3.55</v>
       </c>
       <c r="M137">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N137">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="O137">
         <v>1.35</v>
@@ -15720,14 +15720,14 @@
         <v>353</v>
       </c>
       <c r="F138">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="G138">
+        <v>3.38</v>
+      </c>
+      <c r="H138">
         <v>3.3</v>
       </c>
-      <c r="H138">
-        <v>3.35</v>
-      </c>
       <c r="I138">
         <v>0</v>
       </c>
@@ -15741,10 +15741,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="N138">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -15824,13 +15824,13 @@
         <v>354</v>
       </c>
       <c r="F139">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H139">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I139">
         <v>1.04</v>
@@ -15845,10 +15845,10 @@
         <v>4</v>
       </c>
       <c r="M139">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="N139">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O139">
         <v>1.33</v>
@@ -15887,28 +15887,28 @@
         <v>3.8</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC139">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD139">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG139">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH139">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="140" spans="1:34">
@@ -16032,13 +16032,13 @@
         <v>356</v>
       </c>
       <c r="F141">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="G141">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="H141">
-        <v>3.9</v>
+        <v>4.72</v>
       </c>
       <c r="I141">
         <v>1.07</v>
@@ -16053,7 +16053,7 @@
         <v>2.73</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N141">
         <v>1.53</v>
@@ -16136,31 +16136,31 @@
         <v>357</v>
       </c>
       <c r="F142">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="G142">
-        <v>3.65</v>
+        <v>4.12</v>
       </c>
       <c r="H142">
+        <v>1.54</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
         <v>1.69</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>1.91</v>
-      </c>
       <c r="N142">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -16240,13 +16240,13 @@
         <v>291</v>
       </c>
       <c r="F143">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="G143">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H143">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="I143">
         <v>1.06</v>
@@ -16261,7 +16261,7 @@
         <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N143">
         <v>1.78</v>

--- a/Jogos_do_Dia/2023-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1624,7 +1624,7 @@
         <v>1.59</v>
       </c>
       <c r="V2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="W3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0.82</v>
@@ -1832,10 +1832,10 @@
         <v>2.2</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>2.25</v>
@@ -1936,7 +1936,7 @@
         <v>2.22</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>2.15</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>1.75</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>1.72</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0.93</v>
@@ -2456,7 +2456,7 @@
         <v>1.7</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>1.57</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1.66</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2872,10 +2872,10 @@
         <v>1.77</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1.82</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>2.09</v>
@@ -3184,10 +3184,10 @@
         <v>1.52</v>
       </c>
       <c r="V17">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W17">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>1.54</v>
@@ -3240,13 +3240,13 @@
         <v>233</v>
       </c>
       <c r="F18">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G18">
         <v>3.2</v>
       </c>
       <c r="H18">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
         <v>1.05</v>
@@ -3261,10 +3261,10 @@
         <v>3.3</v>
       </c>
       <c r="M18">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>1.24</v>
@@ -3324,7 +3324,7 @@
         <v>2.63</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -3344,13 +3344,13 @@
         <v>234</v>
       </c>
       <c r="F19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>3.1</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -3365,10 +3365,10 @@
         <v>3.04</v>
       </c>
       <c r="M19">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="N19">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O19">
         <v>1.44</v>
@@ -3392,7 +3392,7 @@
         <v>1.7</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE19">
         <v>1.57</v>
@@ -3428,7 +3428,7 @@
         <v>2.4</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -3448,13 +3448,13 @@
         <v>235</v>
       </c>
       <c r="F20">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G20">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1.06</v>
@@ -3469,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="N20">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -3496,7 +3496,7 @@
         <v>1.62</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3552,13 +3552,13 @@
         <v>236</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G21">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I21">
         <v>1.04</v>
@@ -3573,10 +3573,10 @@
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="N21">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="O21">
         <v>1.44</v>
@@ -3600,10 +3600,10 @@
         <v>1.9</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>237</v>
       </c>
       <c r="F22">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="I22">
         <v>1.03</v>
@@ -3677,10 +3677,10 @@
         <v>3.04</v>
       </c>
       <c r="M22">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="N22">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="O22">
         <v>1.44</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3760,13 +3760,13 @@
         <v>238</v>
       </c>
       <c r="F23">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G23">
         <v>3.1</v>
       </c>
       <c r="H23">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
         <v>1.07</v>
@@ -3781,10 +3781,10 @@
         <v>2.85</v>
       </c>
       <c r="M23">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="N23">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O23">
         <v>1.5</v>
@@ -3808,10 +3808,10 @@
         <v>1.83</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X23">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>3.5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE23">
         <v>1.62</v>
@@ -3844,7 +3844,7 @@
         <v>2.5</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -3864,13 +3864,13 @@
         <v>239</v>
       </c>
       <c r="F24">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="G24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H24">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3885,10 +3885,10 @@
         <v>3.45</v>
       </c>
       <c r="M24">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="N24">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O24">
         <v>1.4</v>
@@ -3912,10 +3912,10 @@
         <v>1.5</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1.69</v>
@@ -3936,7 +3936,7 @@
         <v>2.25</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE24">
         <v>1.52</v>
@@ -3948,7 +3948,7 @@
         <v>2.49</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3968,13 +3968,13 @@
         <v>240</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I25">
         <v>1.05</v>
@@ -3989,10 +3989,10 @@
         <v>3.05</v>
       </c>
       <c r="M25">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="N25">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O25">
         <v>1.44</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -4072,13 +4072,13 @@
         <v>241</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G26">
         <v>2.95</v>
       </c>
       <c r="H26">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I26">
         <v>1.1</v>
@@ -4087,16 +4087,16 @@
         <v>6.4</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L26">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="M26">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O26">
         <v>1.57</v>
@@ -4156,7 +4156,7 @@
         <v>3.1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -4176,13 +4176,13 @@
         <v>242</v>
       </c>
       <c r="F27">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="G27">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I27">
         <v>1.04</v>
@@ -4197,10 +4197,10 @@
         <v>2.97</v>
       </c>
       <c r="M27">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="N27">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
         <v>1.44</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X27">
         <v>1.19</v>
@@ -4260,7 +4260,7 @@
         <v>2.4</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -4280,13 +4280,13 @@
         <v>243</v>
       </c>
       <c r="F28">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1.08</v>
@@ -4301,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -4328,10 +4328,10 @@
         <v>1.65</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -4384,13 +4384,13 @@
         <v>244</v>
       </c>
       <c r="F29">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="G29">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I29">
         <v>1.07</v>
@@ -4405,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N29">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
         <v>1.44</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X29">
         <v>1.39</v>
@@ -4491,10 +4491,10 @@
         <v>2.8</v>
       </c>
       <c r="G30">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H30">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="I30">
         <v>1.07</v>
@@ -4509,10 +4509,10 @@
         <v>2.8</v>
       </c>
       <c r="M30">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N30">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
         <v>1.44</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>246</v>
       </c>
       <c r="F31">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="G31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H31">
-        <v>2.89</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>3.7</v>
       </c>
       <c r="M31">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="N31">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
         <v>1.36</v>
@@ -4625,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="Q31">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R31">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>1.17</v>
@@ -4640,10 +4640,10 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X31">
         <v>1.69</v>
@@ -4670,7 +4670,7 @@
         <v>1.39</v>
       </c>
       <c r="AF31">
-        <v>1.71</v>
+        <v>2.38</v>
       </c>
       <c r="AG31">
         <v>2.2</v>
@@ -4696,13 +4696,13 @@
         <v>247</v>
       </c>
       <c r="F32">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="G32">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="H32">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I32">
         <v>1.07</v>
@@ -4717,10 +4717,10 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O32">
         <v>1.4</v>
@@ -4744,10 +4744,10 @@
         <v>1.23</v>
       </c>
       <c r="V32">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X32">
         <v>1.44</v>
@@ -4800,13 +4800,13 @@
         <v>248</v>
       </c>
       <c r="F33">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G33">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I33">
         <v>1.01</v>
@@ -4821,10 +4821,10 @@
         <v>3.64</v>
       </c>
       <c r="M33">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="N33">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="O33">
         <v>1.38</v>
@@ -4848,10 +4848,10 @@
         <v>2.04</v>
       </c>
       <c r="V33">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W33">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X33">
         <v>1.42</v>
@@ -4904,13 +4904,13 @@
         <v>249</v>
       </c>
       <c r="F34">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H34">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="I34">
         <v>1.12</v>
@@ -4952,10 +4952,10 @@
         <v>1.48</v>
       </c>
       <c r="V34">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="W34">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>1.29</v>
@@ -5008,13 +5008,13 @@
         <v>250</v>
       </c>
       <c r="F35">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G35">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="H35">
-        <v>4.2</v>
+        <v>4.73</v>
       </c>
       <c r="I35">
         <v>1.06</v>
@@ -5029,10 +5029,10 @@
         <v>3.25</v>
       </c>
       <c r="M35">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="N35">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O35">
         <v>1.36</v>
@@ -5056,10 +5056,10 @@
         <v>1.98</v>
       </c>
       <c r="V35">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="W35">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X35">
         <v>1.79</v>
@@ -5115,10 +5115,10 @@
         <v>3.2</v>
       </c>
       <c r="G36">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H36">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="I36">
         <v>1.05</v>
@@ -5133,10 +5133,10 @@
         <v>3.63</v>
       </c>
       <c r="M36">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N36">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -5160,10 +5160,10 @@
         <v>1.4</v>
       </c>
       <c r="V36">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W36">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="X36">
         <v>1.47</v>
@@ -5216,13 +5216,13 @@
         <v>252</v>
       </c>
       <c r="F37">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="G37">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H37">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I37">
         <v>1.05</v>
@@ -5237,10 +5237,10 @@
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="N37">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="O37">
         <v>1.43</v>
@@ -5264,10 +5264,10 @@
         <v>1.66</v>
       </c>
       <c r="V37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W37">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="X37">
         <v>1.44</v>
@@ -5320,13 +5320,13 @@
         <v>253</v>
       </c>
       <c r="F38">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="G38">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="H38">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
         <v>1.04</v>
@@ -5341,10 +5341,10 @@
         <v>5</v>
       </c>
       <c r="M38">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="N38">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="O38">
         <v>1.29</v>
@@ -5353,10 +5353,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R38">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S38">
         <v>1.27</v>
@@ -5368,10 +5368,10 @@
         <v>1.72</v>
       </c>
       <c r="V38">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="W38">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X38">
         <v>1.87</v>
@@ -5383,13 +5383,13 @@
         <v>3.46</v>
       </c>
       <c r="AA38">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AB38">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC38">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -5424,13 +5424,13 @@
         <v>254</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="G39">
-        <v>2.65</v>
+        <v>3.19</v>
       </c>
       <c r="H39">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="I39">
         <v>1.09</v>
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="X39">
         <v>1.47</v>
@@ -5528,13 +5528,13 @@
         <v>255</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>12.43</v>
       </c>
       <c r="G40">
-        <v>5.5</v>
+        <v>5.86</v>
       </c>
       <c r="H40">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="I40">
         <v>1.02</v>
@@ -5549,10 +5549,10 @@
         <v>5</v>
       </c>
       <c r="M40">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
         <v>1.25</v>
@@ -5576,10 +5576,10 @@
         <v>1.07</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W40">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="X40">
         <v>1.37</v>
@@ -5632,10 +5632,10 @@
         <v>256</v>
       </c>
       <c r="F41">
-        <v>6.5</v>
+        <v>5.93</v>
       </c>
       <c r="G41">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="H41">
         <v>1.5</v>
@@ -5653,10 +5653,10 @@
         <v>4.5</v>
       </c>
       <c r="M41">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O41">
         <v>1.3</v>
@@ -5680,10 +5680,10 @@
         <v>1.13</v>
       </c>
       <c r="V41">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="W41">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="X41">
         <v>1.45</v>
@@ -5736,13 +5736,13 @@
         <v>257</v>
       </c>
       <c r="F42">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="G42">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="H42">
-        <v>2.34</v>
+        <v>2.17</v>
       </c>
       <c r="I42">
         <v>1.04</v>
@@ -5784,10 +5784,10 @@
         <v>1.36</v>
       </c>
       <c r="V42">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="W42">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="X42">
         <v>1.55</v>
@@ -5808,7 +5808,7 @@
         <v>1.76</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE42">
         <v>1.68</v>
@@ -5820,7 +5820,7 @@
         <v>2.67</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -5840,13 +5840,13 @@
         <v>258</v>
       </c>
       <c r="F43">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="G43">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="H43">
-        <v>4.1</v>
+        <v>4.71</v>
       </c>
       <c r="I43">
         <v>1.02</v>
@@ -5888,10 +5888,10 @@
         <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="W43">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="X43">
         <v>1.5</v>
@@ -5935,7 +5935,7 @@
         <v>44990.375</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>117</v>
@@ -5944,13 +5944,13 @@
         <v>259</v>
       </c>
       <c r="F44">
-        <v>5.8</v>
+        <v>1.33</v>
       </c>
       <c r="G44">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H44">
-        <v>1.42</v>
+        <v>6.5</v>
       </c>
       <c r="I44">
         <v>1.02</v>
@@ -5968,7 +5968,7 @@
         <v>1.55</v>
       </c>
       <c r="N44">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O44">
         <v>1.27</v>
@@ -5992,7 +5992,7 @@
         <v>1.08</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -6048,13 +6048,13 @@
         <v>260</v>
       </c>
       <c r="F45">
-        <v>7.4</v>
+        <v>6.88</v>
       </c>
       <c r="G45">
-        <v>4.6</v>
+        <v>4.42</v>
       </c>
       <c r="H45">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="I45">
         <v>1.04</v>
@@ -6069,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="M45">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="O45">
         <v>1.3</v>
@@ -6096,10 +6096,10 @@
         <v>1.08</v>
       </c>
       <c r="V45">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X45">
         <v>1.1</v>
@@ -6152,13 +6152,13 @@
         <v>261</v>
       </c>
       <c r="F46">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G46">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="H46">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="I46">
         <v>1.04</v>
@@ -6173,10 +6173,10 @@
         <v>3.8</v>
       </c>
       <c r="M46">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N46">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="O46">
         <v>1.36</v>
@@ -6200,10 +6200,10 @@
         <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="W46">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X46">
         <v>1.84</v>
@@ -6256,13 +6256,13 @@
         <v>262</v>
       </c>
       <c r="F47">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="G47">
-        <v>3.1</v>
+        <v>3.47</v>
       </c>
       <c r="H47">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="I47">
         <v>1.05</v>
@@ -6280,7 +6280,7 @@
         <v>1.87</v>
       </c>
       <c r="N47">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O47">
         <v>1.44</v>
@@ -6304,10 +6304,10 @@
         <v>1.41</v>
       </c>
       <c r="V47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X47">
         <v>1.58</v>
@@ -6360,13 +6360,13 @@
         <v>263</v>
       </c>
       <c r="F48">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="G48">
-        <v>3.2</v>
+        <v>3.67</v>
       </c>
       <c r="H48">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="I48">
         <v>1.05</v>
@@ -6381,10 +6381,10 @@
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="N48">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="O48">
         <v>1.36</v>
@@ -6408,10 +6408,10 @@
         <v>1.57</v>
       </c>
       <c r="V48">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W48">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="X48">
         <v>1.67</v>
@@ -6464,13 +6464,13 @@
         <v>264</v>
       </c>
       <c r="F49">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="G49">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="H49">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="I49">
         <v>1.05</v>
@@ -6485,10 +6485,10 @@
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N49">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="O49">
         <v>1.4</v>
@@ -6512,10 +6512,10 @@
         <v>1.24</v>
       </c>
       <c r="V49">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W49">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="X49">
         <v>1.34</v>
@@ -6568,13 +6568,13 @@
         <v>265</v>
       </c>
       <c r="F50">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="G50">
-        <v>3.8</v>
+        <v>4.09</v>
       </c>
       <c r="H50">
-        <v>5.25</v>
+        <v>5.84</v>
       </c>
       <c r="I50">
         <v>1.05</v>
@@ -6589,10 +6589,10 @@
         <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="N50">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="O50">
         <v>1.36</v>
@@ -6616,10 +6616,10 @@
         <v>2.6</v>
       </c>
       <c r="V50">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
         <v>1.55</v>
@@ -6672,13 +6672,13 @@
         <v>266</v>
       </c>
       <c r="F51">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="H51">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="I51">
         <v>1.03</v>
@@ -6720,10 +6720,10 @@
         <v>1.52</v>
       </c>
       <c r="V51">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W51">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X51">
         <v>1.67</v>
@@ -6776,13 +6776,13 @@
         <v>267</v>
       </c>
       <c r="F52">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H52">
-        <v>3.8</v>
+        <v>3.89</v>
       </c>
       <c r="I52">
         <v>1.03</v>
@@ -6797,10 +6797,10 @@
         <v>3.7</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O52">
         <v>1.36</v>
@@ -6824,10 +6824,10 @@
         <v>1.88</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
         <v>1.8</v>
@@ -6883,34 +6883,34 @@
         <v>1.44</v>
       </c>
       <c r="G53">
-        <v>4.06</v>
+        <v>3.93</v>
       </c>
       <c r="H53">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J53">
         <v>12.25</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L53">
         <v>3.57</v>
       </c>
       <c r="M53">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N53">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53">
         <v>1.95</v>
@@ -6928,10 +6928,10 @@
         <v>2.4</v>
       </c>
       <c r="V53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="W53">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="X53">
         <v>1.65</v>
@@ -6984,13 +6984,13 @@
         <v>269</v>
       </c>
       <c r="F54">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="G54">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="H54">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="I54">
         <v>1.05</v>
@@ -7005,10 +7005,10 @@
         <v>3.8</v>
       </c>
       <c r="M54">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N54">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="O54">
         <v>1.35</v>
@@ -7032,10 +7032,10 @@
         <v>1.6</v>
       </c>
       <c r="V54">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X54">
         <v>1.75</v>
@@ -7056,7 +7056,7 @@
         <v>2.05</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE54">
         <v>1.3</v>
@@ -7088,13 +7088,13 @@
         <v>270</v>
       </c>
       <c r="F55">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="G55">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H55">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="I55">
         <v>1.05</v>
@@ -7136,10 +7136,10 @@
         <v>1.42</v>
       </c>
       <c r="V55">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="W55">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X55">
         <v>1.58</v>
@@ -7192,13 +7192,13 @@
         <v>271</v>
       </c>
       <c r="F56">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="G56">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="H56">
-        <v>5.25</v>
+        <v>4.55</v>
       </c>
       <c r="I56">
         <v>1.11</v>
@@ -7240,10 +7240,10 @@
         <v>2</v>
       </c>
       <c r="V56">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="W56">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="X56">
         <v>1.33</v>
@@ -7296,13 +7296,13 @@
         <v>272</v>
       </c>
       <c r="F57">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="G57">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="H57">
-        <v>2.97</v>
+        <v>3.24</v>
       </c>
       <c r="I57">
         <v>1.08</v>
@@ -7344,10 +7344,10 @@
         <v>1.53</v>
       </c>
       <c r="V57">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="W57">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X57">
         <v>1.55</v>
@@ -7400,13 +7400,13 @@
         <v>273</v>
       </c>
       <c r="F58">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G58">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="H58">
-        <v>3.95</v>
+        <v>4.12</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7421,10 +7421,10 @@
         <v>3.82</v>
       </c>
       <c r="M58">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="N58">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O58">
         <v>1.38</v>
@@ -7448,7 +7448,7 @@
         <v>2.05</v>
       </c>
       <c r="V58">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W58">
         <v>0.92</v>
@@ -7504,58 +7504,58 @@
         <v>274</v>
       </c>
       <c r="F59">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="G59">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="H59">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M59">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="N59">
+        <v>2.16</v>
+      </c>
+      <c r="O59">
+        <v>1.3</v>
+      </c>
+      <c r="P59">
+        <v>3.4</v>
+      </c>
+      <c r="Q59">
+        <v>1.62</v>
+      </c>
+      <c r="R59">
         <v>2.2</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>1.57</v>
-      </c>
-      <c r="R59">
-        <v>2.25</v>
-      </c>
       <c r="S59">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V59">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X59">
         <v>1.48</v>
@@ -7576,13 +7576,13 @@
         <v>1.64</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE59">
         <v>1.3</v>
       </c>
       <c r="AF59">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AG59">
         <v>1.94</v>
@@ -7608,37 +7608,37 @@
         <v>275</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="G60">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="H60">
-        <v>2.25</v>
+        <v>2.58</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q60">
         <v>1.57</v>
@@ -7647,19 +7647,19 @@
         <v>2.25</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W60">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="X60">
         <v>1.62</v>
@@ -7671,7 +7671,7 @@
         <v>3.38</v>
       </c>
       <c r="AA60">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AB60">
         <v>8</v>
@@ -7680,7 +7680,7 @@
         <v>1.67</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE60">
         <v>1.25</v>
@@ -7712,13 +7712,13 @@
         <v>276</v>
       </c>
       <c r="F61">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G61">
-        <v>4.3</v>
+        <v>4.16</v>
       </c>
       <c r="H61">
-        <v>4.9</v>
+        <v>4.23</v>
       </c>
       <c r="I61">
         <v>1.02</v>
@@ -7760,10 +7760,10 @@
         <v>2.3</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W61">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="X61">
         <v>2.24</v>
@@ -7816,13 +7816,13 @@
         <v>277</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>5.93</v>
       </c>
       <c r="G62">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="H62">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="I62">
         <v>1.01</v>
@@ -7837,10 +7837,10 @@
         <v>5</v>
       </c>
       <c r="M62">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="O62">
         <v>1.29</v>
@@ -7864,10 +7864,10 @@
         <v>1.05</v>
       </c>
       <c r="V62">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X62">
         <v>1.57</v>
@@ -7920,13 +7920,13 @@
         <v>278</v>
       </c>
       <c r="F63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="G63">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>7.01</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -7968,10 +7968,10 @@
         <v>2.55</v>
       </c>
       <c r="V63">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="W63">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="X63">
         <v>1.55</v>
@@ -8024,13 +8024,13 @@
         <v>279</v>
       </c>
       <c r="F64">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="G64">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H64">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="I64">
         <v>1.1</v>
@@ -8072,10 +8072,10 @@
         <v>1.3</v>
       </c>
       <c r="V64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W64">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="X64">
         <v>1.34</v>
@@ -8128,13 +8128,13 @@
         <v>280</v>
       </c>
       <c r="F65">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="G65">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -8176,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="W65">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X65">
         <v>1.29</v>
@@ -8232,13 +8232,13 @@
         <v>281</v>
       </c>
       <c r="F66">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="G66">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H66">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -8280,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W66">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="X66">
         <v>1.18</v>
@@ -8336,13 +8336,13 @@
         <v>282</v>
       </c>
       <c r="F67">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="G67">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H67">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8357,10 +8357,10 @@
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N67">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="O67">
         <v>1.41</v>
@@ -8384,10 +8384,10 @@
         <v>1.22</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="W67">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X67">
         <v>2.21</v>
@@ -8408,7 +8408,7 @@
         <v>1.75</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE67">
         <v>1.29</v>
@@ -8446,52 +8446,52 @@
         <v>3.75</v>
       </c>
       <c r="H68">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R68">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V68">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="W68">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="X68">
         <v>1.88</v>
@@ -8503,28 +8503,28 @@
         <v>3.34</v>
       </c>
       <c r="AA68">
+        <v>1.37</v>
+      </c>
+      <c r="AB68">
+        <v>8</v>
+      </c>
+      <c r="AC68">
+        <v>4.26</v>
+      </c>
+      <c r="AD68">
         <v>1.41</v>
       </c>
-      <c r="AB68">
-        <v>8.5</v>
-      </c>
-      <c r="AC68">
-        <v>3.58</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG68">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:34">
@@ -8544,13 +8544,13 @@
         <v>284</v>
       </c>
       <c r="F69">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G69">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="H69">
-        <v>4.25</v>
+        <v>3.73</v>
       </c>
       <c r="I69">
         <v>1.05</v>
@@ -8565,10 +8565,10 @@
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O69">
         <v>1.4</v>
@@ -8592,10 +8592,10 @@
         <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="W69">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="X69">
         <v>1.43</v>
@@ -8648,13 +8648,13 @@
         <v>285</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G70">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="I70">
         <v>1.06</v>
@@ -8669,10 +8669,10 @@
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N70">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O70">
         <v>1.44</v>
@@ -8696,10 +8696,10 @@
         <v>1.78</v>
       </c>
       <c r="V70">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="W70">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="X70">
         <v>1.45</v>
@@ -8752,13 +8752,13 @@
         <v>286</v>
       </c>
       <c r="F71">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G71">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="H71">
-        <v>5.8</v>
+        <v>5.21</v>
       </c>
       <c r="I71">
         <v>1.05</v>
@@ -8773,10 +8773,10 @@
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="N71">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O71">
         <v>1.44</v>
@@ -8800,10 +8800,10 @@
         <v>2.3</v>
       </c>
       <c r="V71">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W71">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="X71">
         <v>2.03</v>
@@ -8856,13 +8856,13 @@
         <v>287</v>
       </c>
       <c r="F72">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G72">
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="H72">
-        <v>4.6</v>
+        <v>4.08</v>
       </c>
       <c r="I72">
         <v>1.03</v>
@@ -8904,10 +8904,10 @@
         <v>2.05</v>
       </c>
       <c r="V72">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="W72">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X72">
         <v>1.69</v>
@@ -8960,13 +8960,13 @@
         <v>288</v>
       </c>
       <c r="F73">
-        <v>3.88</v>
+        <v>2.22</v>
       </c>
       <c r="G73">
-        <v>3.48</v>
+        <v>3.16</v>
       </c>
       <c r="H73">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="I73">
         <v>1.07</v>
@@ -8981,10 +8981,10 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="N73">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O73">
         <v>1.44</v>
@@ -9008,10 +9008,10 @@
         <v>1.24</v>
       </c>
       <c r="V73">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="W73">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="X73">
         <v>2.08</v>
@@ -9032,19 +9032,19 @@
         <v>0</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -9064,13 +9064,13 @@
         <v>289</v>
       </c>
       <c r="F74">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="G74">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="H74">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -9085,10 +9085,10 @@
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="N74">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O74">
         <v>1.37</v>
@@ -9112,10 +9112,10 @@
         <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="W74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X74">
         <v>1.77</v>
@@ -9168,13 +9168,13 @@
         <v>290</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="G75">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="H75">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="I75">
         <v>1.06</v>
@@ -9189,10 +9189,10 @@
         <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="O75">
         <v>1.44</v>
@@ -9216,10 +9216,10 @@
         <v>1.65</v>
       </c>
       <c r="V75">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="W75">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X75">
         <v>1.06</v>
@@ -9272,13 +9272,13 @@
         <v>291</v>
       </c>
       <c r="F76">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="G76">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="H76">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="I76">
         <v>1.11</v>
@@ -9320,10 +9320,10 @@
         <v>1.5</v>
       </c>
       <c r="V76">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W76">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="X76">
         <v>1.35</v>
@@ -9376,13 +9376,13 @@
         <v>292</v>
       </c>
       <c r="F77">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G77">
-        <v>3.3</v>
+        <v>3.02</v>
       </c>
       <c r="H77">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="I77">
         <v>1.05</v>
@@ -9424,10 +9424,10 @@
         <v>1.7</v>
       </c>
       <c r="V77">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="X77">
         <v>1.98</v>
@@ -9439,16 +9439,16 @@
         <v>3.35</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE77">
         <v>1.27</v>
@@ -9480,13 +9480,13 @@
         <v>293</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G78">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="H78">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="I78">
         <v>1.07</v>
@@ -9501,10 +9501,10 @@
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="N78">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
         <v>1.42</v>
@@ -9528,10 +9528,10 @@
         <v>1.75</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="W78">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X78">
         <v>1.72</v>
@@ -9584,13 +9584,13 @@
         <v>294</v>
       </c>
       <c r="F79">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="H79">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="I79">
         <v>1.1</v>
@@ -9632,10 +9632,10 @@
         <v>1.44</v>
       </c>
       <c r="V79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="W79">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X79">
         <v>1.52</v>
@@ -9688,13 +9688,13 @@
         <v>295</v>
       </c>
       <c r="F80">
-        <v>2.89</v>
+        <v>2.54</v>
       </c>
       <c r="G80">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="H80">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I80">
         <v>1.1</v>
@@ -9736,10 +9736,10 @@
         <v>1.42</v>
       </c>
       <c r="V80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W80">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="X80">
         <v>1.35</v>
@@ -9792,13 +9792,13 @@
         <v>296</v>
       </c>
       <c r="F81">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="G81">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="H81">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="I81">
         <v>1.08</v>
@@ -9840,10 +9840,10 @@
         <v>1.53</v>
       </c>
       <c r="V81">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="W81">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="X81">
         <v>1.71</v>
@@ -9944,10 +9944,10 @@
         <v>1.93</v>
       </c>
       <c r="V82">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W82">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="X82">
         <v>1.84</v>
@@ -10000,13 +10000,13 @@
         <v>298</v>
       </c>
       <c r="F83">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G83">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="H83">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="I83">
         <v>1.11</v>
@@ -10048,10 +10048,10 @@
         <v>1.45</v>
       </c>
       <c r="V83">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="W83">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="X83">
         <v>1.62</v>
@@ -10152,10 +10152,10 @@
         <v>1.44</v>
       </c>
       <c r="V84">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="W84">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="X84">
         <v>1.38</v>
@@ -10208,13 +10208,13 @@
         <v>300</v>
       </c>
       <c r="F85">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="G85">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="H85">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="I85">
         <v>1.09</v>
@@ -10256,10 +10256,10 @@
         <v>1.44</v>
       </c>
       <c r="V85">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="W85">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X85">
         <v>1.56</v>
@@ -10312,13 +10312,13 @@
         <v>301</v>
       </c>
       <c r="F86">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="G86">
-        <v>7.75</v>
+        <v>7.61</v>
       </c>
       <c r="H86">
-        <v>20</v>
+        <v>16.18</v>
       </c>
       <c r="I86">
         <v>1.01</v>
@@ -10360,10 +10360,10 @@
         <v>4.18</v>
       </c>
       <c r="V86">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="W86">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="X86">
         <v>1.82</v>
@@ -10396,7 +10396,7 @@
         <v>2.84</v>
       </c>
       <c r="AH86">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="87" spans="1:34">
@@ -10416,13 +10416,13 @@
         <v>302</v>
       </c>
       <c r="F87">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="G87">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="H87">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I87">
         <v>1.01</v>
@@ -10464,10 +10464,10 @@
         <v>5.75</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -10520,13 +10520,13 @@
         <v>303</v>
       </c>
       <c r="F88">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G88">
-        <v>4.4</v>
+        <v>4.18</v>
       </c>
       <c r="H88">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10568,10 +10568,10 @@
         <v>2.37</v>
       </c>
       <c r="V88">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W88">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="X88">
         <v>1.86</v>
@@ -10624,13 +10624,13 @@
         <v>304</v>
       </c>
       <c r="F89">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="G89">
-        <v>8.4</v>
+        <v>7.81</v>
       </c>
       <c r="H89">
-        <v>18</v>
+        <v>16.59</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10645,10 +10645,10 @@
         <v>7</v>
       </c>
       <c r="M89">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="O89">
         <v>1.18</v>
@@ -10728,13 +10728,13 @@
         <v>305</v>
       </c>
       <c r="F90">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="G90">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="H90">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I90">
         <v>1.04</v>
@@ -10749,10 +10749,10 @@
         <v>3.9</v>
       </c>
       <c r="M90">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="N90">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="O90">
         <v>1.36</v>
@@ -10832,13 +10832,13 @@
         <v>306</v>
       </c>
       <c r="F91">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="G91">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="H91">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="I91">
         <v>1.08</v>
@@ -10847,16 +10847,16 @@
         <v>6.05</v>
       </c>
       <c r="K91">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="O91">
         <v>1.58</v>
@@ -10939,10 +10939,10 @@
         <v>1.53</v>
       </c>
       <c r="G92">
-        <v>4.3</v>
+        <v>3.72</v>
       </c>
       <c r="H92">
-        <v>5.5</v>
+        <v>5.24</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -11040,13 +11040,13 @@
         <v>308</v>
       </c>
       <c r="F93">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G93">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="H93">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="I93">
         <v>1.07</v>
@@ -11124,7 +11124,7 @@
         <v>2.98</v>
       </c>
       <c r="AH93">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="94" spans="1:34">
@@ -11144,13 +11144,13 @@
         <v>309</v>
       </c>
       <c r="F94">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="G94">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="H94">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="I94">
         <v>1.03</v>
@@ -11207,16 +11207,16 @@
         <v>3.45</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC94">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE94">
         <v>1.29</v>
@@ -11248,13 +11248,13 @@
         <v>310</v>
       </c>
       <c r="F95">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="G95">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="H95">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="I95">
         <v>1.11</v>
@@ -11352,13 +11352,13 @@
         <v>311</v>
       </c>
       <c r="F96">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="G96">
-        <v>4.5</v>
+        <v>5.45</v>
       </c>
       <c r="H96">
-        <v>6.5</v>
+        <v>7.93</v>
       </c>
       <c r="I96">
         <v>1.04</v>
@@ -11456,37 +11456,37 @@
         <v>312</v>
       </c>
       <c r="F97">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M97">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N97">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
         <v>1.67</v>
@@ -11495,13 +11495,13 @@
         <v>2.1</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U97">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V97">
         <v>2.27</v>
@@ -11531,16 +11531,16 @@
         <v>0</v>
       </c>
       <c r="AE97">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG97">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH97">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="98" spans="1:34">
@@ -11560,10 +11560,10 @@
         <v>313</v>
       </c>
       <c r="F98">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="G98">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="H98">
         <v>2.31</v>
@@ -11581,10 +11581,10 @@
         <v>4</v>
       </c>
       <c r="M98">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N98">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="O98">
         <v>1.32</v>
@@ -11664,13 +11664,13 @@
         <v>314</v>
       </c>
       <c r="F99">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="G99">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="H99">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="I99">
         <v>1.01</v>
@@ -11685,10 +11685,10 @@
         <v>3.55</v>
       </c>
       <c r="M99">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="N99">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O99">
         <v>1.36</v>
@@ -11768,13 +11768,13 @@
         <v>315</v>
       </c>
       <c r="F100">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="G100">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="H100">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="I100">
         <v>1.06</v>
@@ -11872,13 +11872,13 @@
         <v>316</v>
       </c>
       <c r="F101">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="G101">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="H101">
-        <v>3.32</v>
+        <v>3.27</v>
       </c>
       <c r="I101">
         <v>1.02</v>
@@ -11893,10 +11893,10 @@
         <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="N101">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O101">
         <v>1.35</v>
@@ -11976,13 +11976,13 @@
         <v>317</v>
       </c>
       <c r="F102">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G102">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H102">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I102">
         <v>1.03</v>
@@ -11997,10 +11997,10 @@
         <v>3.1</v>
       </c>
       <c r="M102">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="N102">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="O102">
         <v>1.42</v>
@@ -12080,13 +12080,13 @@
         <v>318</v>
       </c>
       <c r="F103">
-        <v>4.7</v>
+        <v>4.51</v>
       </c>
       <c r="G103">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="H103">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="I103">
         <v>1.05</v>
@@ -12101,10 +12101,10 @@
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="N103">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O103">
         <v>1.4</v>
@@ -12164,7 +12164,7 @@
         <v>3.34</v>
       </c>
       <c r="AH103">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="104" spans="1:34">
@@ -12184,13 +12184,13 @@
         <v>319</v>
       </c>
       <c r="F104">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G104">
-        <v>6.5</v>
+        <v>6.69</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>11.89</v>
       </c>
       <c r="I104">
         <v>1.01</v>
@@ -12288,10 +12288,10 @@
         <v>320</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>6.96</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>4.61</v>
       </c>
       <c r="H105">
         <v>1.33</v>
@@ -12360,7 +12360,7 @@
         <v>1.19</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE105">
         <v>1.26</v>
@@ -12496,13 +12496,13 @@
         <v>322</v>
       </c>
       <c r="F107">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="G107">
-        <v>4.4</v>
+        <v>4.22</v>
       </c>
       <c r="H107">
-        <v>5.5</v>
+        <v>4.77</v>
       </c>
       <c r="I107">
         <v>1.03</v>
@@ -12704,13 +12704,13 @@
         <v>324</v>
       </c>
       <c r="F109">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="G109">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H109">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -12725,10 +12725,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -12808,13 +12808,13 @@
         <v>325</v>
       </c>
       <c r="F110">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="G110">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I110">
         <v>1.09</v>
@@ -12829,10 +12829,10 @@
         <v>2.65</v>
       </c>
       <c r="M110">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="N110">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O110">
         <v>1.5</v>
@@ -12915,10 +12915,10 @@
         <v>1.53</v>
       </c>
       <c r="G111">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="H111">
-        <v>6.5</v>
+        <v>5.69</v>
       </c>
       <c r="I111">
         <v>1.02</v>
@@ -12933,10 +12933,10 @@
         <v>4.3</v>
       </c>
       <c r="M111">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="O111">
         <v>1.33</v>
@@ -13016,13 +13016,13 @@
         <v>327</v>
       </c>
       <c r="F112">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G112">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="H112">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
       <c r="I112">
         <v>1.04</v>
@@ -13037,10 +13037,10 @@
         <v>2.82</v>
       </c>
       <c r="M112">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="N112">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O112">
         <v>1.47</v>
@@ -13120,52 +13120,52 @@
         <v>328</v>
       </c>
       <c r="F113">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
+        <v>1.95</v>
+      </c>
+      <c r="N113">
         <v>1.85</v>
       </c>
-      <c r="N113">
-        <v>1.95</v>
-      </c>
       <c r="O113">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q113">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R113">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U113">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="V113">
         <v>2.83</v>
@@ -13183,28 +13183,28 @@
         <v>3.6</v>
       </c>
       <c r="AA113">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AB113">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC113">
-        <v>4.46</v>
+        <v>5.35</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE113">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF113">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG113">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH113">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="114" spans="1:34">
@@ -13224,13 +13224,13 @@
         <v>329</v>
       </c>
       <c r="F114">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="G114">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="H114">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -13245,10 +13245,10 @@
         <v>3.74</v>
       </c>
       <c r="M114">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="N114">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="O114">
         <v>1.36</v>
@@ -13328,13 +13328,13 @@
         <v>330</v>
       </c>
       <c r="F115">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="G115">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H115">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I115">
         <v>1.04</v>
@@ -13349,10 +13349,10 @@
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="N115">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="O115">
         <v>1.36</v>
@@ -13432,13 +13432,13 @@
         <v>331</v>
       </c>
       <c r="F116">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="G116">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H116">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="I116">
         <v>1.03</v>
@@ -13453,10 +13453,10 @@
         <v>4.5</v>
       </c>
       <c r="M116">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N116">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="O116">
         <v>1.3</v>
@@ -13536,52 +13536,52 @@
         <v>332</v>
       </c>
       <c r="F117">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="G117">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="H117">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V117">
         <v>1.75</v>
@@ -13640,13 +13640,13 @@
         <v>333</v>
       </c>
       <c r="F118">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H118">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="I118">
         <v>1.01</v>
@@ -13661,10 +13661,10 @@
         <v>3.8</v>
       </c>
       <c r="M118">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="O118">
         <v>1.36</v>
@@ -13744,10 +13744,10 @@
         <v>334</v>
       </c>
       <c r="F119">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -13765,10 +13765,10 @@
         <v>3.95</v>
       </c>
       <c r="M119">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O119">
         <v>1.33</v>
@@ -13848,13 +13848,13 @@
         <v>335</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="G120">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H120">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="I120">
         <v>1.05</v>
@@ -13869,10 +13869,10 @@
         <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="N120">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="O120">
         <v>1.36</v>
@@ -13952,13 +13952,13 @@
         <v>336</v>
       </c>
       <c r="F121">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G121">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="H121">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="I121">
         <v>1.08</v>
@@ -14056,10 +14056,10 @@
         <v>337</v>
       </c>
       <c r="F122">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="G122">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H122">
         <v>3.4</v>
@@ -14077,10 +14077,10 @@
         <v>2.45</v>
       </c>
       <c r="M122">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O122">
         <v>1.59</v>
@@ -14160,13 +14160,13 @@
         <v>338</v>
       </c>
       <c r="F123">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="G123">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H123">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="I123">
         <v>1.09</v>
@@ -14181,7 +14181,7 @@
         <v>2.75</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="N123">
         <v>1.58</v>
@@ -14264,13 +14264,13 @@
         <v>339</v>
       </c>
       <c r="F124">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G124">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H124">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="I124">
         <v>1.05</v>
@@ -14285,10 +14285,10 @@
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="N124">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14348,7 +14348,7 @@
         <v>3.28</v>
       </c>
       <c r="AH124">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="125" spans="1:34">
@@ -14368,13 +14368,13 @@
         <v>340</v>
       </c>
       <c r="F125">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G125">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H125">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I125">
         <v>1.09</v>
@@ -14389,10 +14389,10 @@
         <v>2.6</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="N125">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O125">
         <v>1.52</v>
@@ -14472,13 +14472,13 @@
         <v>341</v>
       </c>
       <c r="F126">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="G126">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I126">
         <v>1.02</v>
@@ -14493,10 +14493,10 @@
         <v>5</v>
       </c>
       <c r="M126">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O126">
         <v>1.29</v>
@@ -14576,13 +14576,13 @@
         <v>342</v>
       </c>
       <c r="F127">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G127">
         <v>3.7</v>
       </c>
       <c r="H127">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -14597,10 +14597,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="N127">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -14680,13 +14680,13 @@
         <v>343</v>
       </c>
       <c r="F128">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G128">
         <v>6</v>
       </c>
       <c r="H128">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I128">
         <v>1.03</v>
@@ -14701,10 +14701,10 @@
         <v>3.75</v>
       </c>
       <c r="M128">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O128">
         <v>1.36</v>
@@ -14764,7 +14764,7 @@
         <v>3.42</v>
       </c>
       <c r="AH128">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="129" spans="1:34">
@@ -14784,13 +14784,13 @@
         <v>344</v>
       </c>
       <c r="F129">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="G129">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H129">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="I129">
         <v>1.04</v>
@@ -14805,10 +14805,10 @@
         <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="N129">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O129">
         <v>1.4</v>
@@ -14888,13 +14888,13 @@
         <v>345</v>
       </c>
       <c r="F130">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="G130">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="H130">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I130">
         <v>1.09</v>
@@ -14909,10 +14909,10 @@
         <v>2.5</v>
       </c>
       <c r="M130">
-        <v>2.29</v>
+        <v>2.43</v>
       </c>
       <c r="N130">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="O130">
         <v>1.51</v>
@@ -14992,13 +14992,13 @@
         <v>346</v>
       </c>
       <c r="F131">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="G131">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H131">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I131">
         <v>1.03</v>
@@ -15013,10 +15013,10 @@
         <v>4</v>
       </c>
       <c r="M131">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="N131">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="O131">
         <v>1.33</v>
@@ -15096,13 +15096,13 @@
         <v>347</v>
       </c>
       <c r="F132">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="G132">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I132">
         <v>1.08</v>
@@ -15117,10 +15117,10 @@
         <v>2.55</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
         <v>1.53</v>
@@ -15200,13 +15200,13 @@
         <v>348</v>
       </c>
       <c r="F133">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H133">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="I133">
         <v>1.06</v>
@@ -15221,10 +15221,10 @@
         <v>2.54</v>
       </c>
       <c r="M133">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
         <v>1.52</v>
@@ -15304,13 +15304,13 @@
         <v>349</v>
       </c>
       <c r="F134">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="G134">
         <v>3.85</v>
       </c>
       <c r="H134">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="I134">
         <v>1.03</v>
@@ -15325,10 +15325,10 @@
         <v>3.8</v>
       </c>
       <c r="M134">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="N134">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O134">
         <v>1.36</v>
@@ -15512,13 +15512,13 @@
         <v>351</v>
       </c>
       <c r="F136">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="G136">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H136">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I136">
         <v>1.08</v>
@@ -15533,10 +15533,10 @@
         <v>2.7</v>
       </c>
       <c r="M136">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="N136">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="O136">
         <v>1.46</v>
@@ -15616,13 +15616,13 @@
         <v>352</v>
       </c>
       <c r="F137">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="G137">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I137">
         <v>1.01</v>
@@ -15637,10 +15637,10 @@
         <v>3.55</v>
       </c>
       <c r="M137">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N137">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O137">
         <v>1.35</v>
@@ -15720,13 +15720,13 @@
         <v>353</v>
       </c>
       <c r="F138">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -15741,10 +15741,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N138">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -15824,13 +15824,13 @@
         <v>354</v>
       </c>
       <c r="F139">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="G139">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H139">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I139">
         <v>1.04</v>
@@ -15845,10 +15845,10 @@
         <v>4</v>
       </c>
       <c r="M139">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O139">
         <v>1.33</v>
@@ -16032,13 +16032,13 @@
         <v>356</v>
       </c>
       <c r="F141">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="G141">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="H141">
-        <v>4.72</v>
+        <v>3.75</v>
       </c>
       <c r="I141">
         <v>1.07</v>
@@ -16053,10 +16053,10 @@
         <v>2.73</v>
       </c>
       <c r="M141">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N141">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O141">
         <v>1.47</v>
@@ -16136,13 +16136,13 @@
         <v>357</v>
       </c>
       <c r="F142">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="G142">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="H142">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -16157,10 +16157,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="N142">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -16240,13 +16240,13 @@
         <v>291</v>
       </c>
       <c r="F143">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="G143">
         <v>3.3</v>
       </c>
       <c r="H143">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I143">
         <v>1.06</v>
@@ -16261,10 +16261,10 @@
         <v>3.25</v>
       </c>
       <c r="M143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
         <v>1.41</v>
